--- a/SampleTestcase.xlsx
+++ b/SampleTestcase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="100">
   <si>
     <t>UseCaseName</t>
   </si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>Verifying navigating to website</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Make Sure chrome browser is opened </t>
   </si>
   <si>
     <t>Enter valid site url &lt;"http://192.168.1.100/user/Reg"&gt;</t>
@@ -315,9 +312,6 @@
     <t>Verifying descriptive text available at webpage</t>
   </si>
   <si>
-    <t>System should navigate to registraion page and expected registration page should contains expected fields like [FirstName, LastName, Email, DomainName,Password,RetypePassword,DOB[Day,Month,Year]Gender,Create Account ]</t>
-  </si>
-  <si>
     <t>Verify SignIn Page Details</t>
   </si>
   <si>
@@ -369,63 +363,12 @@
     <t>Tc005_UI_Registration_Singup_Invalid</t>
   </si>
   <si>
-    <t>Check lastname accepting valid characters like[Alphabets] with 4 characters range</t>
-  </si>
-  <si>
     <t>Ram</t>
   </si>
   <si>
     <t>Should reject and display error message"First Name allow only 4 to 40 characters range"</t>
   </si>
   <si>
-    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmngjykyuyfsdfdg</t>
-  </si>
-  <si>
-    <t>Verifying Firstname with blank Data</t>
-  </si>
-  <si>
-    <t>Check firstname accepting blank data</t>
-  </si>
-  <si>
-    <t>Verifying lastname Entry with valid data</t>
-  </si>
-  <si>
-    <t>Check lastname accepting valid characters like[Alphabets] in between 4 to 40 characters range</t>
-  </si>
-  <si>
-    <t>puja</t>
-  </si>
-  <si>
-    <t>Check lastname accepting valid characters like[Alphabets] with 40 input characters range</t>
-  </si>
-  <si>
-    <t>sastrichary</t>
-  </si>
-  <si>
-    <t>Verifying lastname with invalid Data</t>
-  </si>
-  <si>
-    <t>Should reject and display error message"last Name allow only 4 to 40 characters range"</t>
-  </si>
-  <si>
-    <t>Verifying lastname with blank Data</t>
-  </si>
-  <si>
-    <t>Check lastname accepting blank data</t>
-  </si>
-  <si>
-    <t>Check firstname accepting Invalid characters like numbers and special characters with more than 4 characters range</t>
-  </si>
-  <si>
-    <t>Check firstname accepting Invalid characters like numbers and special characterswith less than 40 characters range</t>
-  </si>
-  <si>
-    <t>12%#34</t>
-  </si>
-  <si>
-    <t>1234567890)(*&amp;^%$#@!1234567&amp;^%$#@!!@#$%^</t>
-  </si>
-  <si>
     <t xml:space="preserve">Check firstname accepting valid characters like alphabets with 3 characters </t>
   </si>
   <si>
@@ -435,52 +378,11 @@
     <t>assdfghjkhgfdssasddffftthhhggghhhjjhgffdffdfdf</t>
   </si>
   <si>
-    <t>Should reject and display error message"First Name allow only  alphabet characters</t>
-  </si>
-  <si>
-    <t>Should reject and display error message"First Name allow only  alphabet characters"</t>
-  </si>
-  <si>
-    <t>Tc006_UI_Registration_Singup_Invalid</t>
-  </si>
-  <si>
-    <t>Tc007_UI_Registration_Singup_blank data</t>
-  </si>
-  <si>
-    <t>Tc008_UI_Registration_Singup_Valid</t>
-  </si>
-  <si>
-    <t>Tc009_UI_Registration_Singup_Invalid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check lastname accepting Invalid characters like[Alphabets] with  than 3 characters </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check lastname accepting Invalid characters like[Alphabets] with 41 characters </t>
-  </si>
-  <si>
-    <t>Tc010_UI_Registration_Singup_Invalid</t>
-  </si>
-  <si>
-    <t>Check lastname accepting Invalid characters like numbers and special characters with more than 4 characters range</t>
-  </si>
-  <si>
-    <t>Check lastname accepting Invalid characters like numbers and special characterswith less than 40 characters range</t>
-  </si>
-  <si>
-    <t>Should reject and display error message"Last Name allow only  alphabet characters</t>
-  </si>
-  <si>
-    <t>Should reject and display error message"Last Name allow only  alphabet characters"</t>
-  </si>
-  <si>
-    <t>Tc011_UI_Registration_Singup_blank data</t>
-  </si>
-  <si>
-    <t>Should reject and display error message"Please enter Firstname"</t>
-  </si>
-  <si>
-    <t>Should reject and display error message"Please enter Lastname"</t>
+    <t>Make Sure internet is available</t>
+  </si>
+  <si>
+    <t>System should navigate to registraion page, And page contains expected fields like [FirstName, LastName, Email, DomainName,Password,RetypePassword,DOB[Day,Month,Year]Gender,Create Account ]
+=&gt; Registration page should contains proper title and header</t>
   </si>
 </sst>
 </file>
@@ -604,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -668,20 +570,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -977,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K404"/>
+  <dimension ref="A1:K374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1019,10 +915,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="24"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="5"/>
@@ -1120,19 +1016,19 @@
         <v>27</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
@@ -1153,13 +1049,13 @@
     </row>
     <row r="9" spans="1:11" ht="37.5">
       <c r="A9" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>15</v>
@@ -1168,11 +1064,11 @@
         <v>16</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
@@ -1187,11 +1083,11 @@
         <v>17</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
@@ -1206,13 +1102,13 @@
         <v>18</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
@@ -1227,11 +1123,11 @@
         <v>20</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
@@ -1246,11 +1142,11 @@
         <v>21</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
@@ -1262,14 +1158,14 @@
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>38</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>39</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
@@ -1290,13 +1186,13 @@
     </row>
     <row r="16" spans="1:11" ht="37.5">
       <c r="A16" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>15</v>
@@ -1305,13 +1201,13 @@
         <v>16</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>15</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
@@ -1326,11 +1222,13 @@
         <v>17</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="17"/>
+        <v>47</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="H17" s="17" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
@@ -1351,13 +1249,13 @@
     </row>
     <row r="19" spans="1:11" ht="56.25">
       <c r="A19" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>15</v>
@@ -1366,13 +1264,13 @@
         <v>16</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>15</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
@@ -1387,11 +1285,11 @@
         <v>17</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
@@ -1406,19 +1304,19 @@
         <v>18</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>19</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
     </row>
-    <row r="22" spans="1:11" ht="56.25">
+    <row r="22" spans="1:11" ht="37.5">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -1427,13 +1325,13 @@
         <v>20</v>
       </c>
       <c r="F22" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="H22" s="17" t="s">
         <v>53</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>54</v>
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
@@ -1448,13 +1346,13 @@
         <v>21</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G23" s="17" t="s">
         <v>5</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
@@ -1475,28 +1373,28 @@
     </row>
     <row r="25" spans="1:11" ht="56.25">
       <c r="A25" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>16</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G25" s="17" t="s">
         <v>15</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
@@ -1511,11 +1409,11 @@
         <v>17</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
@@ -1530,13 +1428,13 @@
         <v>18</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
@@ -1551,627 +1449,411 @@
         <v>20</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
     </row>
-    <row r="29" spans="1:11" s="26" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A29" s="18"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-    </row>
-    <row r="30" spans="1:11" ht="66" customHeight="1">
-      <c r="A30" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>30</v>
-      </c>
+    <row r="29" spans="1:11" ht="18.75">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+    </row>
+    <row r="30" spans="1:11" ht="18.75">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
     </row>
-    <row r="31" spans="1:11" ht="51" customHeight="1">
+    <row r="31" spans="1:11" ht="18.75">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
-      <c r="E31" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>48</v>
-      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
       <c r="G31" s="17"/>
-      <c r="H31" s="17" t="s">
-        <v>50</v>
-      </c>
+      <c r="H31" s="17"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
       <c r="K31" s="17"/>
     </row>
-    <row r="32" spans="1:11" ht="98.25" customHeight="1">
+    <row r="32" spans="1:11" ht="18.75">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>117</v>
-      </c>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
       <c r="I32" s="17"/>
       <c r="J32" s="17"/>
       <c r="K32" s="17"/>
     </row>
-    <row r="33" spans="1:11" ht="97.5" customHeight="1">
+    <row r="33" spans="1:11" ht="18.75">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="H33" s="17" t="s">
-        <v>118</v>
-      </c>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
       <c r="K33" s="17"/>
     </row>
-    <row r="34" spans="1:11" s="26" customFormat="1" ht="27" customHeight="1">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-    </row>
-    <row r="35" spans="1:11" ht="56.25">
-      <c r="A35" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="17" t="s">
-        <v>30</v>
-      </c>
+    <row r="34" spans="1:11" ht="18.75">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+    </row>
+    <row r="35" spans="1:11" ht="18.75">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
       <c r="I35" s="17"/>
       <c r="J35" s="17"/>
       <c r="K35" s="17"/>
     </row>
-    <row r="36" spans="1:11" ht="37.5">
+    <row r="36" spans="1:11" ht="18.75">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>48</v>
-      </c>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
       <c r="G36" s="17"/>
-      <c r="H36" s="17" t="s">
-        <v>50</v>
-      </c>
+      <c r="H36" s="17"/>
       <c r="I36" s="17"/>
       <c r="J36" s="17"/>
       <c r="K36" s="17"/>
     </row>
-    <row r="37" spans="1:11" ht="64.5" customHeight="1">
+    <row r="37" spans="1:11" ht="18.75">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>100</v>
-      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
       <c r="G37" s="17"/>
-      <c r="H37" s="17" t="s">
-        <v>131</v>
-      </c>
+      <c r="H37" s="17"/>
       <c r="I37" s="17"/>
       <c r="J37" s="17"/>
       <c r="K37" s="17"/>
     </row>
-    <row r="38" spans="1:11" s="26" customFormat="1" ht="18.75">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-    </row>
-    <row r="39" spans="1:11" ht="56.25">
-      <c r="A39" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="17" t="s">
-        <v>30</v>
-      </c>
+    <row r="38" spans="1:11" ht="18.75">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+    </row>
+    <row r="39" spans="1:11" ht="18.75">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
       <c r="I39" s="17"/>
       <c r="J39" s="17"/>
       <c r="K39" s="17"/>
     </row>
-    <row r="40" spans="1:11" ht="37.5">
+    <row r="40" spans="1:11" ht="18.75">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>48</v>
-      </c>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
       <c r="G40" s="17"/>
-      <c r="H40" s="17" t="s">
-        <v>50</v>
-      </c>
+      <c r="H40" s="17"/>
       <c r="I40" s="17"/>
       <c r="J40" s="17"/>
       <c r="K40" s="17"/>
     </row>
-    <row r="41" spans="1:11" ht="37.5">
+    <row r="41" spans="1:11" ht="18.75">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="H41" s="17" t="s">
-        <v>54</v>
-      </c>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
       <c r="I41" s="17"/>
       <c r="J41" s="17"/>
       <c r="K41" s="17"/>
     </row>
-    <row r="42" spans="1:11" ht="56.25">
+    <row r="42" spans="1:11" ht="18.75">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
-      <c r="E42" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H42" s="17" t="s">
-        <v>54</v>
-      </c>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
       <c r="I42" s="17"/>
       <c r="J42" s="17"/>
       <c r="K42" s="17"/>
     </row>
-    <row r="43" spans="1:11" ht="56.25">
+    <row r="43" spans="1:11" ht="18.75">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
-      <c r="E43" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="G43" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="H43" s="17" t="s">
-        <v>54</v>
-      </c>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
       <c r="I43" s="17"/>
       <c r="J43" s="17"/>
       <c r="K43" s="17"/>
     </row>
-    <row r="44" spans="1:11" s="26" customFormat="1" ht="18.75">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-    </row>
-    <row r="45" spans="1:11" ht="59.25" customHeight="1">
-      <c r="A45" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G45" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H45" s="17" t="s">
-        <v>30</v>
-      </c>
+    <row r="44" spans="1:11" ht="18.75">
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+    </row>
+    <row r="45" spans="1:11" ht="18.75">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
       <c r="I45" s="17"/>
       <c r="J45" s="17"/>
       <c r="K45" s="17"/>
     </row>
-    <row r="46" spans="1:11" ht="37.5">
+    <row r="46" spans="1:11" ht="18.75">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
-      <c r="E46" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>48</v>
-      </c>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
       <c r="G46" s="17"/>
-      <c r="H46" s="17" t="s">
-        <v>50</v>
-      </c>
+      <c r="H46" s="17"/>
       <c r="I46" s="17"/>
       <c r="J46" s="17"/>
       <c r="K46" s="17"/>
     </row>
-    <row r="47" spans="1:11" ht="75">
+    <row r="47" spans="1:11" ht="18.75">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
-      <c r="E47" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="H47" s="17" t="s">
-        <v>107</v>
-      </c>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
       <c r="I47" s="17"/>
       <c r="J47" s="17"/>
       <c r="K47" s="17"/>
     </row>
-    <row r="48" spans="1:11" ht="75">
+    <row r="48" spans="1:11" ht="18.75">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
-      <c r="E48" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="G48" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="H48" s="17" t="s">
-        <v>107</v>
-      </c>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
       <c r="I48" s="17"/>
       <c r="J48" s="17"/>
       <c r="K48" s="17"/>
     </row>
-    <row r="49" spans="1:11" s="26" customFormat="1" ht="18.75">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-    </row>
-    <row r="50" spans="1:11" ht="63" customHeight="1">
-      <c r="A50" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G50" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H50" s="17" t="s">
-        <v>30</v>
-      </c>
+    <row r="49" spans="1:11" ht="18.75">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+    </row>
+    <row r="50" spans="1:11" ht="18.75">
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
       <c r="I50" s="17"/>
       <c r="J50" s="17"/>
       <c r="K50" s="17"/>
     </row>
-    <row r="51" spans="1:11" ht="37.5">
+    <row r="51" spans="1:11" ht="18.75">
       <c r="A51" s="15"/>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
-      <c r="E51" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>48</v>
-      </c>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
       <c r="G51" s="17"/>
-      <c r="H51" s="17" t="s">
-        <v>50</v>
-      </c>
+      <c r="H51" s="17"/>
       <c r="I51" s="17"/>
       <c r="J51" s="17"/>
       <c r="K51" s="17"/>
     </row>
-    <row r="52" spans="1:11" ht="75">
+    <row r="52" spans="1:11" ht="18.75">
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
-      <c r="E52" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="G52" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="H52" s="17" t="s">
-        <v>128</v>
-      </c>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
       <c r="I52" s="17"/>
       <c r="J52" s="17"/>
       <c r="K52" s="17"/>
     </row>
-    <row r="53" spans="1:11" ht="75">
+    <row r="53" spans="1:11" ht="18.75">
       <c r="A53" s="15"/>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
-      <c r="E53" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="G53" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="H53" s="17" t="s">
-        <v>129</v>
-      </c>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
       <c r="I53" s="17"/>
       <c r="J53" s="17"/>
       <c r="K53" s="17"/>
     </row>
     <row r="54" spans="1:11" ht="18.75">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
       <c r="I54" s="17"/>
       <c r="J54" s="17"/>
       <c r="K54" s="17"/>
     </row>
-    <row r="55" spans="1:11" ht="56.25" customHeight="1">
-      <c r="A55" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="B55" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G55" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H55" s="17" t="s">
-        <v>30</v>
-      </c>
+    <row r="55" spans="1:11" ht="18.75">
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
       <c r="I55" s="17"/>
       <c r="J55" s="17"/>
       <c r="K55" s="17"/>
     </row>
-    <row r="56" spans="1:11" ht="37.5">
+    <row r="56" spans="1:11" ht="18.75">
       <c r="A56" s="15"/>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
-      <c r="E56" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F56" s="15" t="s">
-        <v>48</v>
-      </c>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
       <c r="G56" s="17"/>
-      <c r="H56" s="17" t="s">
-        <v>50</v>
-      </c>
+      <c r="H56" s="17"/>
       <c r="I56" s="17"/>
       <c r="J56" s="17"/>
       <c r="K56" s="17"/>
     </row>
-    <row r="57" spans="1:11" ht="67.5" customHeight="1">
+    <row r="57" spans="1:11" ht="18.75">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
-      <c r="E57" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57" s="15" t="s">
-        <v>109</v>
-      </c>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
       <c r="G57" s="17"/>
-      <c r="H57" s="17" t="s">
-        <v>132</v>
-      </c>
+      <c r="H57" s="17"/>
       <c r="I57" s="17"/>
       <c r="J57" s="17"/>
       <c r="K57" s="17"/>
     </row>
-    <row r="58" spans="1:11" s="26" customFormat="1" ht="18.75">
-      <c r="A58" s="18"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
+    <row r="58" spans="1:11" ht="18.75">
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
     </row>
     <row r="59" spans="1:11" ht="18.75">
       <c r="A59" s="15"/>
-      <c r="B59" s="16"/>
+      <c r="B59" s="15"/>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
       <c r="E59" s="15"/>
@@ -5952,720 +5634,330 @@
       <c r="J349" s="17"/>
       <c r="K349" s="17"/>
     </row>
-    <row r="350" spans="1:11" ht="18.75">
-      <c r="A350" s="15"/>
-      <c r="B350" s="15"/>
-      <c r="C350" s="15"/>
-      <c r="D350" s="15"/>
-      <c r="E350" s="15"/>
-      <c r="F350" s="15"/>
-      <c r="G350" s="17"/>
-      <c r="H350" s="17"/>
-      <c r="I350" s="17"/>
-      <c r="J350" s="17"/>
-      <c r="K350" s="17"/>
-    </row>
-    <row r="351" spans="1:11" ht="18.75">
-      <c r="A351" s="15"/>
-      <c r="B351" s="15"/>
-      <c r="C351" s="15"/>
-      <c r="D351" s="15"/>
-      <c r="E351" s="15"/>
-      <c r="F351" s="15"/>
-      <c r="G351" s="17"/>
-      <c r="H351" s="17"/>
-      <c r="I351" s="17"/>
-      <c r="J351" s="17"/>
-      <c r="K351" s="17"/>
-    </row>
-    <row r="352" spans="1:11" ht="18.75">
-      <c r="A352" s="15"/>
-      <c r="B352" s="15"/>
-      <c r="C352" s="15"/>
-      <c r="D352" s="15"/>
-      <c r="E352" s="15"/>
-      <c r="F352" s="15"/>
-      <c r="G352" s="17"/>
-      <c r="H352" s="17"/>
-      <c r="I352" s="17"/>
-      <c r="J352" s="17"/>
-      <c r="K352" s="17"/>
-    </row>
-    <row r="353" spans="1:11" ht="18.75">
-      <c r="A353" s="15"/>
-      <c r="B353" s="15"/>
-      <c r="C353" s="15"/>
-      <c r="D353" s="15"/>
-      <c r="E353" s="15"/>
-      <c r="F353" s="15"/>
-      <c r="G353" s="17"/>
-      <c r="H353" s="17"/>
-      <c r="I353" s="17"/>
-      <c r="J353" s="17"/>
-      <c r="K353" s="17"/>
-    </row>
-    <row r="354" spans="1:11" ht="18.75">
-      <c r="A354" s="15"/>
-      <c r="B354" s="15"/>
-      <c r="C354" s="15"/>
-      <c r="D354" s="15"/>
-      <c r="E354" s="15"/>
-      <c r="F354" s="15"/>
-      <c r="G354" s="17"/>
-      <c r="H354" s="17"/>
-      <c r="I354" s="17"/>
-      <c r="J354" s="17"/>
-      <c r="K354" s="17"/>
-    </row>
-    <row r="355" spans="1:11" ht="18.75">
-      <c r="A355" s="15"/>
-      <c r="B355" s="15"/>
-      <c r="C355" s="15"/>
-      <c r="D355" s="15"/>
-      <c r="E355" s="15"/>
-      <c r="F355" s="15"/>
-      <c r="G355" s="17"/>
-      <c r="H355" s="17"/>
-      <c r="I355" s="17"/>
-      <c r="J355" s="17"/>
-      <c r="K355" s="17"/>
-    </row>
-    <row r="356" spans="1:11" ht="18.75">
-      <c r="A356" s="15"/>
-      <c r="B356" s="15"/>
-      <c r="C356" s="15"/>
-      <c r="D356" s="15"/>
-      <c r="E356" s="15"/>
-      <c r="F356" s="15"/>
-      <c r="G356" s="17"/>
-      <c r="H356" s="17"/>
-      <c r="I356" s="17"/>
-      <c r="J356" s="17"/>
-      <c r="K356" s="17"/>
-    </row>
-    <row r="357" spans="1:11" ht="18.75">
-      <c r="A357" s="15"/>
-      <c r="B357" s="15"/>
-      <c r="C357" s="15"/>
-      <c r="D357" s="15"/>
-      <c r="E357" s="15"/>
-      <c r="F357" s="15"/>
-      <c r="G357" s="17"/>
-      <c r="H357" s="17"/>
-      <c r="I357" s="17"/>
-      <c r="J357" s="17"/>
-      <c r="K357" s="17"/>
-    </row>
-    <row r="358" spans="1:11" ht="18.75">
-      <c r="A358" s="15"/>
-      <c r="B358" s="15"/>
-      <c r="C358" s="15"/>
-      <c r="D358" s="15"/>
-      <c r="E358" s="15"/>
-      <c r="F358" s="15"/>
-      <c r="G358" s="17"/>
-      <c r="H358" s="17"/>
-      <c r="I358" s="17"/>
-      <c r="J358" s="17"/>
-      <c r="K358" s="17"/>
-    </row>
-    <row r="359" spans="1:11" ht="18.75">
-      <c r="A359" s="15"/>
-      <c r="B359" s="15"/>
-      <c r="C359" s="15"/>
-      <c r="D359" s="15"/>
-      <c r="E359" s="15"/>
-      <c r="F359" s="15"/>
-      <c r="G359" s="17"/>
-      <c r="H359" s="17"/>
-      <c r="I359" s="17"/>
-      <c r="J359" s="17"/>
-      <c r="K359" s="17"/>
-    </row>
-    <row r="360" spans="1:11" ht="18.75">
-      <c r="A360" s="15"/>
-      <c r="B360" s="15"/>
-      <c r="C360" s="15"/>
-      <c r="D360" s="15"/>
-      <c r="E360" s="15"/>
-      <c r="F360" s="15"/>
-      <c r="G360" s="17"/>
-      <c r="H360" s="17"/>
-      <c r="I360" s="17"/>
-      <c r="J360" s="17"/>
-      <c r="K360" s="17"/>
-    </row>
-    <row r="361" spans="1:11" ht="18.75">
-      <c r="A361" s="15"/>
-      <c r="B361" s="15"/>
-      <c r="C361" s="15"/>
-      <c r="D361" s="15"/>
-      <c r="E361" s="15"/>
-      <c r="F361" s="15"/>
-      <c r="G361" s="17"/>
-      <c r="H361" s="17"/>
-      <c r="I361" s="17"/>
-      <c r="J361" s="17"/>
-      <c r="K361" s="17"/>
-    </row>
-    <row r="362" spans="1:11" ht="18.75">
-      <c r="A362" s="15"/>
-      <c r="B362" s="15"/>
-      <c r="C362" s="15"/>
-      <c r="D362" s="15"/>
-      <c r="E362" s="15"/>
-      <c r="F362" s="15"/>
-      <c r="G362" s="17"/>
-      <c r="H362" s="17"/>
-      <c r="I362" s="17"/>
-      <c r="J362" s="17"/>
-      <c r="K362" s="17"/>
-    </row>
-    <row r="363" spans="1:11" ht="18.75">
-      <c r="A363" s="15"/>
-      <c r="B363" s="15"/>
-      <c r="C363" s="15"/>
-      <c r="D363" s="15"/>
-      <c r="E363" s="15"/>
-      <c r="F363" s="15"/>
-      <c r="G363" s="17"/>
-      <c r="H363" s="17"/>
-      <c r="I363" s="17"/>
-      <c r="J363" s="17"/>
-      <c r="K363" s="17"/>
-    </row>
-    <row r="364" spans="1:11" ht="18.75">
-      <c r="A364" s="15"/>
-      <c r="B364" s="15"/>
-      <c r="C364" s="15"/>
-      <c r="D364" s="15"/>
-      <c r="E364" s="15"/>
-      <c r="F364" s="15"/>
-      <c r="G364" s="17"/>
-      <c r="H364" s="17"/>
-      <c r="I364" s="17"/>
-      <c r="J364" s="17"/>
-      <c r="K364" s="17"/>
-    </row>
-    <row r="365" spans="1:11" ht="18.75">
-      <c r="A365" s="15"/>
-      <c r="B365" s="15"/>
-      <c r="C365" s="15"/>
-      <c r="D365" s="15"/>
-      <c r="E365" s="15"/>
-      <c r="F365" s="15"/>
-      <c r="G365" s="17"/>
-      <c r="H365" s="17"/>
-      <c r="I365" s="17"/>
-      <c r="J365" s="17"/>
-      <c r="K365" s="17"/>
-    </row>
-    <row r="366" spans="1:11" ht="18.75">
-      <c r="A366" s="15"/>
-      <c r="B366" s="15"/>
-      <c r="C366" s="15"/>
-      <c r="D366" s="15"/>
-      <c r="E366" s="15"/>
-      <c r="F366" s="15"/>
-      <c r="G366" s="17"/>
-      <c r="H366" s="17"/>
-      <c r="I366" s="17"/>
-      <c r="J366" s="17"/>
-      <c r="K366" s="17"/>
-    </row>
-    <row r="367" spans="1:11" ht="18.75">
-      <c r="A367" s="15"/>
-      <c r="B367" s="15"/>
-      <c r="C367" s="15"/>
-      <c r="D367" s="15"/>
-      <c r="E367" s="15"/>
-      <c r="F367" s="15"/>
-      <c r="G367" s="17"/>
-      <c r="H367" s="17"/>
-      <c r="I367" s="17"/>
-      <c r="J367" s="17"/>
-      <c r="K367" s="17"/>
-    </row>
-    <row r="368" spans="1:11" ht="18.75">
-      <c r="A368" s="15"/>
-      <c r="B368" s="15"/>
-      <c r="C368" s="15"/>
-      <c r="D368" s="15"/>
-      <c r="E368" s="15"/>
-      <c r="F368" s="15"/>
-      <c r="G368" s="17"/>
-      <c r="H368" s="17"/>
-      <c r="I368" s="17"/>
-      <c r="J368" s="17"/>
-      <c r="K368" s="17"/>
-    </row>
-    <row r="369" spans="1:11" ht="18.75">
-      <c r="A369" s="15"/>
-      <c r="B369" s="15"/>
-      <c r="C369" s="15"/>
-      <c r="D369" s="15"/>
-      <c r="E369" s="15"/>
-      <c r="F369" s="15"/>
-      <c r="G369" s="17"/>
-      <c r="H369" s="17"/>
-      <c r="I369" s="17"/>
-      <c r="J369" s="17"/>
-      <c r="K369" s="17"/>
-    </row>
-    <row r="370" spans="1:11" ht="18.75">
-      <c r="A370" s="15"/>
-      <c r="B370" s="15"/>
-      <c r="C370" s="15"/>
-      <c r="D370" s="15"/>
-      <c r="E370" s="15"/>
-      <c r="F370" s="15"/>
-      <c r="G370" s="17"/>
-      <c r="H370" s="17"/>
-      <c r="I370" s="17"/>
-      <c r="J370" s="17"/>
-      <c r="K370" s="17"/>
-    </row>
-    <row r="371" spans="1:11" ht="18.75">
-      <c r="A371" s="15"/>
-      <c r="B371" s="15"/>
-      <c r="C371" s="15"/>
-      <c r="D371" s="15"/>
-      <c r="E371" s="15"/>
-      <c r="F371" s="15"/>
-      <c r="G371" s="17"/>
-      <c r="H371" s="17"/>
-      <c r="I371" s="17"/>
-      <c r="J371" s="17"/>
-      <c r="K371" s="17"/>
-    </row>
-    <row r="372" spans="1:11" ht="18.75">
-      <c r="A372" s="15"/>
-      <c r="B372" s="15"/>
-      <c r="C372" s="15"/>
-      <c r="D372" s="15"/>
-      <c r="E372" s="15"/>
-      <c r="F372" s="15"/>
-      <c r="G372" s="17"/>
-      <c r="H372" s="17"/>
-      <c r="I372" s="17"/>
-      <c r="J372" s="17"/>
-      <c r="K372" s="17"/>
-    </row>
-    <row r="373" spans="1:11" ht="18.75">
-      <c r="A373" s="15"/>
-      <c r="B373" s="15"/>
-      <c r="C373" s="15"/>
-      <c r="D373" s="15"/>
-      <c r="E373" s="15"/>
-      <c r="F373" s="15"/>
-      <c r="G373" s="17"/>
-      <c r="H373" s="17"/>
-      <c r="I373" s="17"/>
-      <c r="J373" s="17"/>
-      <c r="K373" s="17"/>
-    </row>
-    <row r="374" spans="1:11" ht="18.75">
-      <c r="A374" s="15"/>
-      <c r="B374" s="15"/>
-      <c r="C374" s="15"/>
-      <c r="D374" s="15"/>
-      <c r="E374" s="15"/>
-      <c r="F374" s="15"/>
-      <c r="G374" s="17"/>
-      <c r="H374" s="17"/>
-      <c r="I374" s="17"/>
-      <c r="J374" s="17"/>
-      <c r="K374" s="17"/>
-    </row>
-    <row r="375" spans="1:11" ht="18.75">
-      <c r="A375" s="15"/>
-      <c r="B375" s="15"/>
-      <c r="C375" s="15"/>
-      <c r="D375" s="15"/>
-      <c r="E375" s="15"/>
-      <c r="F375" s="15"/>
-      <c r="G375" s="17"/>
-      <c r="H375" s="17"/>
-      <c r="I375" s="17"/>
-      <c r="J375" s="17"/>
-      <c r="K375" s="17"/>
-    </row>
-    <row r="376" spans="1:11" ht="18.75">
-      <c r="A376" s="15"/>
-      <c r="B376" s="15"/>
-      <c r="C376" s="15"/>
-      <c r="D376" s="15"/>
-      <c r="E376" s="15"/>
-      <c r="F376" s="15"/>
-      <c r="G376" s="17"/>
-      <c r="H376" s="17"/>
-      <c r="I376" s="17"/>
-      <c r="J376" s="17"/>
-      <c r="K376" s="17"/>
-    </row>
-    <row r="377" spans="1:11" ht="18.75">
-      <c r="A377" s="15"/>
-      <c r="B377" s="15"/>
-      <c r="C377" s="15"/>
-      <c r="D377" s="15"/>
-      <c r="E377" s="15"/>
-      <c r="F377" s="15"/>
-      <c r="G377" s="17"/>
-      <c r="H377" s="17"/>
-      <c r="I377" s="17"/>
-      <c r="J377" s="17"/>
-      <c r="K377" s="17"/>
-    </row>
-    <row r="378" spans="1:11" ht="18.75">
-      <c r="A378" s="15"/>
-      <c r="B378" s="15"/>
-      <c r="C378" s="15"/>
-      <c r="D378" s="15"/>
-      <c r="E378" s="15"/>
-      <c r="F378" s="15"/>
-      <c r="G378" s="17"/>
-      <c r="H378" s="17"/>
-      <c r="I378" s="17"/>
-      <c r="J378" s="17"/>
-      <c r="K378" s="17"/>
-    </row>
-    <row r="379" spans="1:11" ht="18.75">
-      <c r="A379" s="15"/>
-      <c r="B379" s="15"/>
-      <c r="C379" s="15"/>
-      <c r="D379" s="15"/>
-      <c r="E379" s="15"/>
-      <c r="F379" s="15"/>
-      <c r="G379" s="17"/>
-      <c r="H379" s="17"/>
-      <c r="I379" s="17"/>
-      <c r="J379" s="17"/>
-      <c r="K379" s="17"/>
-    </row>
-    <row r="380" spans="1:11">
-      <c r="A380" s="12"/>
-      <c r="B380" s="12"/>
-      <c r="C380" s="12"/>
-      <c r="D380" s="12"/>
-      <c r="E380" s="12"/>
-      <c r="F380" s="12"/>
-      <c r="G380" s="13"/>
-      <c r="H380" s="13"/>
-      <c r="I380" s="13"/>
-      <c r="J380" s="13"/>
-      <c r="K380" s="13"/>
-    </row>
-    <row r="381" spans="1:11">
-      <c r="A381" s="12"/>
-      <c r="B381" s="12"/>
-      <c r="C381" s="12"/>
-      <c r="D381" s="12"/>
-      <c r="E381" s="12"/>
-      <c r="F381" s="12"/>
-      <c r="G381" s="13"/>
-      <c r="H381" s="13"/>
-      <c r="I381" s="13"/>
-      <c r="J381" s="13"/>
-      <c r="K381" s="13"/>
-    </row>
-    <row r="382" spans="1:11">
-      <c r="A382" s="12"/>
-      <c r="B382" s="12"/>
-      <c r="C382" s="12"/>
-      <c r="D382" s="12"/>
-      <c r="E382" s="12"/>
-      <c r="F382" s="12"/>
-      <c r="G382" s="13"/>
-      <c r="H382" s="13"/>
-      <c r="I382" s="13"/>
-      <c r="J382" s="13"/>
-      <c r="K382" s="13"/>
-    </row>
-    <row r="383" spans="1:11">
-      <c r="A383" s="12"/>
-      <c r="B383" s="12"/>
-      <c r="C383" s="12"/>
-      <c r="D383" s="12"/>
-      <c r="E383" s="12"/>
-      <c r="F383" s="12"/>
-      <c r="G383" s="13"/>
-      <c r="H383" s="13"/>
-      <c r="I383" s="13"/>
-      <c r="J383" s="13"/>
-      <c r="K383" s="13"/>
-    </row>
-    <row r="384" spans="1:11">
-      <c r="A384" s="12"/>
-      <c r="B384" s="12"/>
-      <c r="C384" s="12"/>
-      <c r="D384" s="12"/>
-      <c r="E384" s="12"/>
-      <c r="F384" s="12"/>
-      <c r="G384" s="13"/>
-      <c r="H384" s="13"/>
-      <c r="I384" s="13"/>
-      <c r="J384" s="13"/>
-      <c r="K384" s="13"/>
-    </row>
-    <row r="385" spans="1:11">
-      <c r="A385" s="12"/>
-      <c r="B385" s="12"/>
-      <c r="C385" s="12"/>
-      <c r="D385" s="12"/>
-      <c r="E385" s="12"/>
-      <c r="F385" s="12"/>
-      <c r="G385" s="13"/>
-      <c r="H385" s="13"/>
-      <c r="I385" s="13"/>
-      <c r="J385" s="13"/>
-      <c r="K385" s="13"/>
-    </row>
-    <row r="386" spans="1:11">
-      <c r="A386" s="12"/>
-      <c r="B386" s="12"/>
-      <c r="C386" s="12"/>
-      <c r="D386" s="12"/>
-      <c r="E386" s="12"/>
-      <c r="F386" s="12"/>
-      <c r="G386" s="13"/>
-      <c r="H386" s="13"/>
-      <c r="I386" s="13"/>
-      <c r="J386" s="13"/>
-      <c r="K386" s="13"/>
-    </row>
-    <row r="387" spans="1:11">
-      <c r="A387" s="12"/>
-      <c r="B387" s="12"/>
-      <c r="C387" s="12"/>
-      <c r="D387" s="12"/>
-      <c r="E387" s="12"/>
-      <c r="F387" s="12"/>
-      <c r="G387" s="13"/>
-      <c r="H387" s="13"/>
-      <c r="I387" s="13"/>
-      <c r="J387" s="13"/>
-      <c r="K387" s="13"/>
-    </row>
-    <row r="388" spans="1:11">
-      <c r="A388" s="12"/>
-      <c r="B388" s="12"/>
-      <c r="C388" s="12"/>
-      <c r="D388" s="12"/>
-      <c r="E388" s="12"/>
-      <c r="F388" s="12"/>
-      <c r="G388" s="13"/>
-      <c r="H388" s="13"/>
-      <c r="I388" s="13"/>
-      <c r="J388" s="13"/>
-      <c r="K388" s="13"/>
-    </row>
-    <row r="389" spans="1:11">
-      <c r="A389" s="12"/>
-      <c r="B389" s="12"/>
-      <c r="C389" s="12"/>
-      <c r="D389" s="12"/>
-      <c r="E389" s="12"/>
-      <c r="F389" s="12"/>
-      <c r="G389" s="13"/>
-      <c r="H389" s="13"/>
-      <c r="I389" s="13"/>
-      <c r="J389" s="13"/>
-      <c r="K389" s="13"/>
-    </row>
-    <row r="390" spans="1:11">
-      <c r="A390" s="12"/>
-      <c r="B390" s="12"/>
-      <c r="C390" s="12"/>
-      <c r="D390" s="12"/>
-      <c r="E390" s="12"/>
-      <c r="F390" s="12"/>
-      <c r="G390" s="13"/>
-      <c r="H390" s="13"/>
-      <c r="I390" s="13"/>
-      <c r="J390" s="13"/>
-      <c r="K390" s="13"/>
-    </row>
-    <row r="391" spans="1:11">
-      <c r="A391" s="12"/>
-      <c r="B391" s="12"/>
-      <c r="C391" s="12"/>
-      <c r="D391" s="12"/>
-      <c r="E391" s="12"/>
-      <c r="F391" s="12"/>
-      <c r="G391" s="13"/>
-      <c r="H391" s="13"/>
-      <c r="I391" s="13"/>
-      <c r="J391" s="13"/>
-      <c r="K391" s="13"/>
-    </row>
-    <row r="392" spans="1:11">
-      <c r="A392" s="12"/>
-      <c r="B392" s="12"/>
-      <c r="C392" s="12"/>
-      <c r="D392" s="12"/>
-      <c r="E392" s="12"/>
-      <c r="F392" s="12"/>
-      <c r="G392" s="13"/>
-      <c r="H392" s="13"/>
-      <c r="I392" s="13"/>
-      <c r="J392" s="13"/>
-      <c r="K392" s="13"/>
-    </row>
-    <row r="393" spans="1:11">
-      <c r="A393" s="12"/>
-      <c r="B393" s="12"/>
-      <c r="C393" s="12"/>
-      <c r="D393" s="12"/>
-      <c r="E393" s="12"/>
-      <c r="F393" s="12"/>
-      <c r="G393" s="13"/>
-      <c r="H393" s="13"/>
-      <c r="I393" s="13"/>
-      <c r="J393" s="13"/>
-      <c r="K393" s="13"/>
-    </row>
-    <row r="394" spans="1:11">
-      <c r="A394" s="12"/>
-      <c r="B394" s="12"/>
-      <c r="C394" s="12"/>
-      <c r="D394" s="12"/>
-      <c r="E394" s="12"/>
-      <c r="F394" s="12"/>
-      <c r="G394" s="13"/>
-      <c r="H394" s="13"/>
-      <c r="I394" s="13"/>
-      <c r="J394" s="13"/>
-      <c r="K394" s="13"/>
-    </row>
-    <row r="395" spans="1:11">
-      <c r="A395" s="12"/>
-      <c r="B395" s="12"/>
-      <c r="C395" s="12"/>
-      <c r="D395" s="12"/>
-      <c r="E395" s="12"/>
-      <c r="F395" s="12"/>
-      <c r="G395" s="13"/>
-      <c r="H395" s="13"/>
-      <c r="I395" s="13"/>
-      <c r="J395" s="13"/>
-      <c r="K395" s="13"/>
-    </row>
-    <row r="396" spans="1:11">
-      <c r="A396" s="12"/>
-      <c r="B396" s="12"/>
-      <c r="C396" s="12"/>
-      <c r="D396" s="12"/>
-      <c r="E396" s="12"/>
-      <c r="F396" s="12"/>
-      <c r="G396" s="13"/>
-      <c r="H396" s="13"/>
-      <c r="I396" s="13"/>
-      <c r="J396" s="13"/>
-      <c r="K396" s="13"/>
-    </row>
-    <row r="397" spans="1:11">
-      <c r="A397" s="12"/>
-      <c r="B397" s="12"/>
-      <c r="C397" s="12"/>
-      <c r="D397" s="12"/>
-      <c r="E397" s="12"/>
-      <c r="F397" s="12"/>
-      <c r="G397" s="13"/>
-      <c r="H397" s="13"/>
-      <c r="I397" s="13"/>
-      <c r="J397" s="13"/>
-      <c r="K397" s="13"/>
-    </row>
-    <row r="398" spans="1:11">
-      <c r="A398" s="12"/>
-      <c r="B398" s="12"/>
-      <c r="C398" s="12"/>
-      <c r="D398" s="12"/>
-      <c r="E398" s="12"/>
-      <c r="F398" s="12"/>
-      <c r="G398" s="13"/>
-      <c r="H398" s="13"/>
-      <c r="I398" s="13"/>
-      <c r="J398" s="13"/>
-      <c r="K398" s="13"/>
-    </row>
-    <row r="399" spans="1:11">
-      <c r="A399" s="12"/>
-      <c r="B399" s="12"/>
-      <c r="C399" s="12"/>
-      <c r="D399" s="12"/>
-      <c r="E399" s="12"/>
-      <c r="F399" s="12"/>
-      <c r="G399" s="13"/>
-      <c r="H399" s="13"/>
-      <c r="I399" s="13"/>
-      <c r="J399" s="13"/>
-      <c r="K399" s="13"/>
-    </row>
-    <row r="400" spans="1:11">
-      <c r="A400" s="12"/>
-      <c r="B400" s="12"/>
-      <c r="C400" s="12"/>
-      <c r="D400" s="12"/>
-      <c r="E400" s="12"/>
-      <c r="F400" s="12"/>
-      <c r="G400" s="13"/>
-      <c r="H400" s="13"/>
-      <c r="I400" s="13"/>
-      <c r="J400" s="13"/>
-      <c r="K400" s="13"/>
-    </row>
-    <row r="401" spans="1:11">
-      <c r="A401" s="12"/>
-      <c r="B401" s="12"/>
-      <c r="C401" s="12"/>
-      <c r="D401" s="12"/>
-      <c r="E401" s="12"/>
-      <c r="F401" s="12"/>
-      <c r="G401" s="13"/>
-      <c r="H401" s="13"/>
-      <c r="I401" s="13"/>
-      <c r="J401" s="13"/>
-      <c r="K401" s="13"/>
-    </row>
-    <row r="402" spans="1:11">
-      <c r="A402" s="12"/>
-      <c r="B402" s="12"/>
-      <c r="C402" s="12"/>
-      <c r="D402" s="12"/>
-      <c r="E402" s="12"/>
-      <c r="F402" s="12"/>
-      <c r="G402" s="13"/>
-      <c r="H402" s="13"/>
-      <c r="I402" s="13"/>
-      <c r="J402" s="13"/>
-      <c r="K402" s="13"/>
-    </row>
-    <row r="403" spans="1:11">
-      <c r="A403" s="12"/>
-      <c r="B403" s="12"/>
-      <c r="C403" s="12"/>
-      <c r="D403" s="12"/>
-      <c r="E403" s="12"/>
-      <c r="F403" s="12"/>
-      <c r="G403" s="13"/>
-      <c r="H403" s="13"/>
-      <c r="I403" s="13"/>
-      <c r="J403" s="13"/>
-      <c r="K403" s="13"/>
-    </row>
-    <row r="404" spans="1:11">
-      <c r="A404" s="12"/>
-      <c r="B404" s="12"/>
-      <c r="C404" s="12"/>
-      <c r="D404" s="12"/>
-      <c r="E404" s="12"/>
-      <c r="F404" s="12"/>
-      <c r="G404" s="13"/>
-      <c r="H404" s="13"/>
-      <c r="I404" s="13"/>
-      <c r="J404" s="13"/>
-      <c r="K404" s="13"/>
+    <row r="350" spans="1:11">
+      <c r="A350" s="12"/>
+      <c r="B350" s="12"/>
+      <c r="C350" s="12"/>
+      <c r="D350" s="12"/>
+      <c r="E350" s="12"/>
+      <c r="F350" s="12"/>
+      <c r="G350" s="13"/>
+      <c r="H350" s="13"/>
+      <c r="I350" s="13"/>
+      <c r="J350" s="13"/>
+      <c r="K350" s="13"/>
+    </row>
+    <row r="351" spans="1:11">
+      <c r="A351" s="12"/>
+      <c r="B351" s="12"/>
+      <c r="C351" s="12"/>
+      <c r="D351" s="12"/>
+      <c r="E351" s="12"/>
+      <c r="F351" s="12"/>
+      <c r="G351" s="13"/>
+      <c r="H351" s="13"/>
+      <c r="I351" s="13"/>
+      <c r="J351" s="13"/>
+      <c r="K351" s="13"/>
+    </row>
+    <row r="352" spans="1:11">
+      <c r="A352" s="12"/>
+      <c r="B352" s="12"/>
+      <c r="C352" s="12"/>
+      <c r="D352" s="12"/>
+      <c r="E352" s="12"/>
+      <c r="F352" s="12"/>
+      <c r="G352" s="13"/>
+      <c r="H352" s="13"/>
+      <c r="I352" s="13"/>
+      <c r="J352" s="13"/>
+      <c r="K352" s="13"/>
+    </row>
+    <row r="353" spans="1:11">
+      <c r="A353" s="12"/>
+      <c r="B353" s="12"/>
+      <c r="C353" s="12"/>
+      <c r="D353" s="12"/>
+      <c r="E353" s="12"/>
+      <c r="F353" s="12"/>
+      <c r="G353" s="13"/>
+      <c r="H353" s="13"/>
+      <c r="I353" s="13"/>
+      <c r="J353" s="13"/>
+      <c r="K353" s="13"/>
+    </row>
+    <row r="354" spans="1:11">
+      <c r="A354" s="12"/>
+      <c r="B354" s="12"/>
+      <c r="C354" s="12"/>
+      <c r="D354" s="12"/>
+      <c r="E354" s="12"/>
+      <c r="F354" s="12"/>
+      <c r="G354" s="13"/>
+      <c r="H354" s="13"/>
+      <c r="I354" s="13"/>
+      <c r="J354" s="13"/>
+      <c r="K354" s="13"/>
+    </row>
+    <row r="355" spans="1:11">
+      <c r="A355" s="12"/>
+      <c r="B355" s="12"/>
+      <c r="C355" s="12"/>
+      <c r="D355" s="12"/>
+      <c r="E355" s="12"/>
+      <c r="F355" s="12"/>
+      <c r="G355" s="13"/>
+      <c r="H355" s="13"/>
+      <c r="I355" s="13"/>
+      <c r="J355" s="13"/>
+      <c r="K355" s="13"/>
+    </row>
+    <row r="356" spans="1:11">
+      <c r="A356" s="12"/>
+      <c r="B356" s="12"/>
+      <c r="C356" s="12"/>
+      <c r="D356" s="12"/>
+      <c r="E356" s="12"/>
+      <c r="F356" s="12"/>
+      <c r="G356" s="13"/>
+      <c r="H356" s="13"/>
+      <c r="I356" s="13"/>
+      <c r="J356" s="13"/>
+      <c r="K356" s="13"/>
+    </row>
+    <row r="357" spans="1:11">
+      <c r="A357" s="12"/>
+      <c r="B357" s="12"/>
+      <c r="C357" s="12"/>
+      <c r="D357" s="12"/>
+      <c r="E357" s="12"/>
+      <c r="F357" s="12"/>
+      <c r="G357" s="13"/>
+      <c r="H357" s="13"/>
+      <c r="I357" s="13"/>
+      <c r="J357" s="13"/>
+      <c r="K357" s="13"/>
+    </row>
+    <row r="358" spans="1:11">
+      <c r="A358" s="12"/>
+      <c r="B358" s="12"/>
+      <c r="C358" s="12"/>
+      <c r="D358" s="12"/>
+      <c r="E358" s="12"/>
+      <c r="F358" s="12"/>
+      <c r="G358" s="13"/>
+      <c r="H358" s="13"/>
+      <c r="I358" s="13"/>
+      <c r="J358" s="13"/>
+      <c r="K358" s="13"/>
+    </row>
+    <row r="359" spans="1:11">
+      <c r="A359" s="12"/>
+      <c r="B359" s="12"/>
+      <c r="C359" s="12"/>
+      <c r="D359" s="12"/>
+      <c r="E359" s="12"/>
+      <c r="F359" s="12"/>
+      <c r="G359" s="13"/>
+      <c r="H359" s="13"/>
+      <c r="I359" s="13"/>
+      <c r="J359" s="13"/>
+      <c r="K359" s="13"/>
+    </row>
+    <row r="360" spans="1:11">
+      <c r="A360" s="12"/>
+      <c r="B360" s="12"/>
+      <c r="C360" s="12"/>
+      <c r="D360" s="12"/>
+      <c r="E360" s="12"/>
+      <c r="F360" s="12"/>
+      <c r="G360" s="13"/>
+      <c r="H360" s="13"/>
+      <c r="I360" s="13"/>
+      <c r="J360" s="13"/>
+      <c r="K360" s="13"/>
+    </row>
+    <row r="361" spans="1:11">
+      <c r="A361" s="12"/>
+      <c r="B361" s="12"/>
+      <c r="C361" s="12"/>
+      <c r="D361" s="12"/>
+      <c r="E361" s="12"/>
+      <c r="F361" s="12"/>
+      <c r="G361" s="13"/>
+      <c r="H361" s="13"/>
+      <c r="I361" s="13"/>
+      <c r="J361" s="13"/>
+      <c r="K361" s="13"/>
+    </row>
+    <row r="362" spans="1:11">
+      <c r="A362" s="12"/>
+      <c r="B362" s="12"/>
+      <c r="C362" s="12"/>
+      <c r="D362" s="12"/>
+      <c r="E362" s="12"/>
+      <c r="F362" s="12"/>
+      <c r="G362" s="13"/>
+      <c r="H362" s="13"/>
+      <c r="I362" s="13"/>
+      <c r="J362" s="13"/>
+      <c r="K362" s="13"/>
+    </row>
+    <row r="363" spans="1:11">
+      <c r="A363" s="12"/>
+      <c r="B363" s="12"/>
+      <c r="C363" s="12"/>
+      <c r="D363" s="12"/>
+      <c r="E363" s="12"/>
+      <c r="F363" s="12"/>
+      <c r="G363" s="13"/>
+      <c r="H363" s="13"/>
+      <c r="I363" s="13"/>
+      <c r="J363" s="13"/>
+      <c r="K363" s="13"/>
+    </row>
+    <row r="364" spans="1:11">
+      <c r="A364" s="12"/>
+      <c r="B364" s="12"/>
+      <c r="C364" s="12"/>
+      <c r="D364" s="12"/>
+      <c r="E364" s="12"/>
+      <c r="F364" s="12"/>
+      <c r="G364" s="13"/>
+      <c r="H364" s="13"/>
+      <c r="I364" s="13"/>
+      <c r="J364" s="13"/>
+      <c r="K364" s="13"/>
+    </row>
+    <row r="365" spans="1:11">
+      <c r="A365" s="12"/>
+      <c r="B365" s="12"/>
+      <c r="C365" s="12"/>
+      <c r="D365" s="12"/>
+      <c r="E365" s="12"/>
+      <c r="F365" s="12"/>
+      <c r="G365" s="13"/>
+      <c r="H365" s="13"/>
+      <c r="I365" s="13"/>
+      <c r="J365" s="13"/>
+      <c r="K365" s="13"/>
+    </row>
+    <row r="366" spans="1:11">
+      <c r="A366" s="12"/>
+      <c r="B366" s="12"/>
+      <c r="C366" s="12"/>
+      <c r="D366" s="12"/>
+      <c r="E366" s="12"/>
+      <c r="F366" s="12"/>
+      <c r="G366" s="13"/>
+      <c r="H366" s="13"/>
+      <c r="I366" s="13"/>
+      <c r="J366" s="13"/>
+      <c r="K366" s="13"/>
+    </row>
+    <row r="367" spans="1:11">
+      <c r="A367" s="12"/>
+      <c r="B367" s="12"/>
+      <c r="C367" s="12"/>
+      <c r="D367" s="12"/>
+      <c r="E367" s="12"/>
+      <c r="F367" s="12"/>
+      <c r="G367" s="13"/>
+      <c r="H367" s="13"/>
+      <c r="I367" s="13"/>
+      <c r="J367" s="13"/>
+      <c r="K367" s="13"/>
+    </row>
+    <row r="368" spans="1:11">
+      <c r="A368" s="12"/>
+      <c r="B368" s="12"/>
+      <c r="C368" s="12"/>
+      <c r="D368" s="12"/>
+      <c r="E368" s="12"/>
+      <c r="F368" s="12"/>
+      <c r="G368" s="13"/>
+      <c r="H368" s="13"/>
+      <c r="I368" s="13"/>
+      <c r="J368" s="13"/>
+      <c r="K368" s="13"/>
+    </row>
+    <row r="369" spans="1:11">
+      <c r="A369" s="12"/>
+      <c r="B369" s="12"/>
+      <c r="C369" s="12"/>
+      <c r="D369" s="12"/>
+      <c r="E369" s="12"/>
+      <c r="F369" s="12"/>
+      <c r="G369" s="13"/>
+      <c r="H369" s="13"/>
+      <c r="I369" s="13"/>
+      <c r="J369" s="13"/>
+      <c r="K369" s="13"/>
+    </row>
+    <row r="370" spans="1:11">
+      <c r="A370" s="12"/>
+      <c r="B370" s="12"/>
+      <c r="C370" s="12"/>
+      <c r="D370" s="12"/>
+      <c r="E370" s="12"/>
+      <c r="F370" s="12"/>
+      <c r="G370" s="13"/>
+      <c r="H370" s="13"/>
+      <c r="I370" s="13"/>
+      <c r="J370" s="13"/>
+      <c r="K370" s="13"/>
+    </row>
+    <row r="371" spans="1:11">
+      <c r="A371" s="12"/>
+      <c r="B371" s="12"/>
+      <c r="C371" s="12"/>
+      <c r="D371" s="12"/>
+      <c r="E371" s="12"/>
+      <c r="F371" s="12"/>
+      <c r="G371" s="13"/>
+      <c r="H371" s="13"/>
+      <c r="I371" s="13"/>
+      <c r="J371" s="13"/>
+      <c r="K371" s="13"/>
+    </row>
+    <row r="372" spans="1:11">
+      <c r="A372" s="12"/>
+      <c r="B372" s="12"/>
+      <c r="C372" s="12"/>
+      <c r="D372" s="12"/>
+      <c r="E372" s="12"/>
+      <c r="F372" s="12"/>
+      <c r="G372" s="13"/>
+      <c r="H372" s="13"/>
+      <c r="I372" s="13"/>
+      <c r="J372" s="13"/>
+      <c r="K372" s="13"/>
+    </row>
+    <row r="373" spans="1:11">
+      <c r="A373" s="12"/>
+      <c r="B373" s="12"/>
+      <c r="C373" s="12"/>
+      <c r="D373" s="12"/>
+      <c r="E373" s="12"/>
+      <c r="F373" s="12"/>
+      <c r="G373" s="13"/>
+      <c r="H373" s="13"/>
+      <c r="I373" s="13"/>
+      <c r="J373" s="13"/>
+      <c r="K373" s="13"/>
+    </row>
+    <row r="374" spans="1:11">
+      <c r="A374" s="12"/>
+      <c r="B374" s="12"/>
+      <c r="C374" s="12"/>
+      <c r="D374" s="12"/>
+      <c r="E374" s="12"/>
+      <c r="F374" s="12"/>
+      <c r="G374" s="13"/>
+      <c r="H374" s="13"/>
+      <c r="I374" s="13"/>
+      <c r="J374" s="13"/>
+      <c r="K374" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6695,13 +5987,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>12</v>
@@ -6709,72 +6001,72 @@
     </row>
     <row r="2" spans="1:4" ht="60">
       <c r="A2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="60">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="60">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="60">
       <c r="A5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="60">
       <c r="A6" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6785,16 +6077,16 @@
     </row>
     <row r="8" spans="1:4" ht="60">
       <c r="A8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="C8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6811,16 +6103,16 @@
     </row>
     <row r="11" spans="1:4" ht="45">
       <c r="A11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6831,16 +6123,16 @@
     </row>
     <row r="13" spans="1:4" ht="60">
       <c r="A13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6877,7 +6169,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="25"/>
+    <col min="1" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
